--- a/Results/PartitioningProblem/Designs/generated_designs_BCEL10.xlsx
+++ b/Results/PartitioningProblem/Designs/generated_designs_BCEL10.xlsx
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z6"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,402 +537,1202 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2">
-        <v>6</v>
+        <v>-0</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>-0</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>2</v>
+        <v>-0</v>
       </c>
       <c r="O2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="W2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
-        <v>23157.56377857126</v>
+        <v>21969.80238635451</v>
       </c>
       <c r="Z2">
-        <v>0.2215979768244865</v>
+        <v>0.3220215244736033</v>
       </c>
     </row>
     <row r="3" spans="1:26">
       <c r="A3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
         <v>5</v>
       </c>
-      <c r="F3">
-        <v>9</v>
-      </c>
-      <c r="G3">
-        <v>8</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="I3">
-        <v>6</v>
-      </c>
-      <c r="J3">
-        <v>4</v>
-      </c>
-      <c r="K3">
-        <v>6</v>
-      </c>
-      <c r="L3">
-        <v>6</v>
-      </c>
       <c r="M3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V3">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
-        <v>20802.93244603256</v>
+        <v>21275.5971037202</v>
       </c>
       <c r="Z3">
-        <v>0.2604867562109592</v>
+        <v>0.128457279043786</v>
       </c>
     </row>
     <row r="4" spans="1:26">
       <c r="A4">
-        <v>6</v>
+        <v>-0</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
         <v>5</v>
       </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>6</v>
-      </c>
-      <c r="F4">
-        <v>6</v>
-      </c>
-      <c r="G4">
-        <v>6</v>
-      </c>
-      <c r="H4">
-        <v>6</v>
-      </c>
-      <c r="I4">
-        <v>5</v>
-      </c>
-      <c r="J4">
-        <v>6</v>
-      </c>
-      <c r="K4">
-        <v>6</v>
-      </c>
-      <c r="L4">
-        <v>6</v>
-      </c>
       <c r="M4">
         <v>1</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>2</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U4">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W4">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
-        <v>23832.75435780147</v>
+        <v>20464.95946383214</v>
       </c>
       <c r="Z4">
-        <v>0.05845651633402724</v>
+        <v>0.2405411320931542</v>
       </c>
     </row>
     <row r="5" spans="1:26">
       <c r="A5">
-        <v>6</v>
+        <v>-0</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>-0</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>2</v>
+        <v>-0</v>
       </c>
       <c r="N5">
-        <v>2</v>
+        <v>-0</v>
       </c>
       <c r="O5">
         <v>2</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="W5">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X5">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
-        <v>23479.37318671577</v>
+        <v>23188.98569901862</v>
       </c>
       <c r="Z5">
-        <v>0.1287462239583333</v>
+        <v>0.3725264254023368</v>
       </c>
     </row>
     <row r="6" spans="1:26">
       <c r="A6">
-        <v>4</v>
+        <v>-0</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <v>3</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>-1</v>
+      </c>
+      <c r="S6">
+        <v>-1</v>
+      </c>
+      <c r="T6">
+        <v>-2</v>
+      </c>
+      <c r="U6">
+        <v>-1</v>
+      </c>
+      <c r="V6">
+        <v>-1</v>
+      </c>
+      <c r="W6">
+        <v>-1</v>
+      </c>
+      <c r="X6">
+        <v>-1</v>
+      </c>
+      <c r="Y6">
+        <v>21905.80172926408</v>
+      </c>
+      <c r="Z6">
+        <v>0.3021875445371656</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7">
         <v>5</v>
       </c>
-      <c r="M6">
-        <v>2</v>
-      </c>
-      <c r="N6">
-        <v>2</v>
-      </c>
-      <c r="O6">
-        <v>3</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6">
-        <v>2</v>
-      </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
-      <c r="T6">
-        <v>2</v>
-      </c>
-      <c r="U6">
-        <v>1</v>
-      </c>
-      <c r="V6">
-        <v>3</v>
-      </c>
-      <c r="W6">
-        <v>1</v>
-      </c>
-      <c r="X6">
-        <v>1</v>
-      </c>
-      <c r="Y6">
-        <v>22498.57567669971</v>
-      </c>
-      <c r="Z6">
-        <v>0.1888271547878307</v>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <v>-0</v>
+      </c>
+      <c r="S7">
+        <v>-1</v>
+      </c>
+      <c r="T7">
+        <v>-0</v>
+      </c>
+      <c r="U7">
+        <v>-1</v>
+      </c>
+      <c r="V7">
+        <v>-1</v>
+      </c>
+      <c r="W7">
+        <v>-1</v>
+      </c>
+      <c r="X7">
+        <v>-1</v>
+      </c>
+      <c r="Y7">
+        <v>20709.87083832384</v>
+      </c>
+      <c r="Z7">
+        <v>0.2718608561056807</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>-1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <v>3</v>
+      </c>
+      <c r="R8">
+        <v>-0</v>
+      </c>
+      <c r="S8">
+        <v>-1</v>
+      </c>
+      <c r="T8">
+        <v>-0</v>
+      </c>
+      <c r="U8">
+        <v>-1</v>
+      </c>
+      <c r="V8">
+        <v>-1</v>
+      </c>
+      <c r="W8">
+        <v>-0</v>
+      </c>
+      <c r="X8">
+        <v>-1</v>
+      </c>
+      <c r="Y8">
+        <v>22881.45687717176</v>
+      </c>
+      <c r="Z8">
+        <v>0.1574227017623494</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9">
+        <v>-0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
+      <c r="R9">
+        <v>-1</v>
+      </c>
+      <c r="S9">
+        <v>-1</v>
+      </c>
+      <c r="T9">
+        <v>-1</v>
+      </c>
+      <c r="U9">
+        <v>-1</v>
+      </c>
+      <c r="V9">
+        <v>-1</v>
+      </c>
+      <c r="W9">
+        <v>-1</v>
+      </c>
+      <c r="X9">
+        <v>-1</v>
+      </c>
+      <c r="Y9">
+        <v>19647.416354461</v>
+      </c>
+      <c r="Z9">
+        <v>0.2427302016322045</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10">
+        <v>-0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
+      </c>
+      <c r="Q10">
+        <v>3</v>
+      </c>
+      <c r="R10">
+        <v>-1</v>
+      </c>
+      <c r="S10">
+        <v>-1</v>
+      </c>
+      <c r="T10">
+        <v>-1</v>
+      </c>
+      <c r="U10">
+        <v>-1</v>
+      </c>
+      <c r="V10">
+        <v>-1</v>
+      </c>
+      <c r="W10">
+        <v>-1</v>
+      </c>
+      <c r="X10">
+        <v>-1</v>
+      </c>
+      <c r="Y10">
+        <v>24181.69294234658</v>
+      </c>
+      <c r="Z10">
+        <v>0.1676371009902952</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11">
+        <v>-0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="P11">
+        <v>3</v>
+      </c>
+      <c r="Q11">
+        <v>3</v>
+      </c>
+      <c r="R11">
+        <v>-1</v>
+      </c>
+      <c r="S11">
+        <v>-1</v>
+      </c>
+      <c r="T11">
+        <v>-1</v>
+      </c>
+      <c r="U11">
+        <v>-1</v>
+      </c>
+      <c r="V11">
+        <v>-1</v>
+      </c>
+      <c r="W11">
+        <v>-1</v>
+      </c>
+      <c r="X11">
+        <v>-1</v>
+      </c>
+      <c r="Y11">
+        <v>18957.21974691012</v>
+      </c>
+      <c r="Z11">
+        <v>0.2202447295114799</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12">
+        <v>-0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <v>4</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="P12">
+        <v>2</v>
+      </c>
+      <c r="Q12">
+        <v>3</v>
+      </c>
+      <c r="R12">
+        <v>-0</v>
+      </c>
+      <c r="S12">
+        <v>-1</v>
+      </c>
+      <c r="T12">
+        <v>-1</v>
+      </c>
+      <c r="U12">
+        <v>-1</v>
+      </c>
+      <c r="V12">
+        <v>-1</v>
+      </c>
+      <c r="W12">
+        <v>-1</v>
+      </c>
+      <c r="X12">
+        <v>-1</v>
+      </c>
+      <c r="Y12">
+        <v>20258.48868783782</v>
+      </c>
+      <c r="Z12">
+        <v>0.1942110661798347</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13">
+        <v>-0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
+      <c r="P13">
+        <v>2</v>
+      </c>
+      <c r="Q13">
+        <v>3</v>
+      </c>
+      <c r="R13">
+        <v>-1</v>
+      </c>
+      <c r="S13">
+        <v>-1</v>
+      </c>
+      <c r="T13">
+        <v>-1</v>
+      </c>
+      <c r="U13">
+        <v>-1</v>
+      </c>
+      <c r="V13">
+        <v>-1</v>
+      </c>
+      <c r="W13">
+        <v>-1</v>
+      </c>
+      <c r="X13">
+        <v>-1</v>
+      </c>
+      <c r="Y13">
+        <v>23101.92526606975</v>
+      </c>
+      <c r="Z13">
+        <v>0.2174218962771531</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14">
+        <v>-0</v>
+      </c>
+      <c r="B14">
+        <v>-0</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <v>5</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="P14">
+        <v>2</v>
+      </c>
+      <c r="Q14">
+        <v>3</v>
+      </c>
+      <c r="R14">
+        <v>-0</v>
+      </c>
+      <c r="S14">
+        <v>-1</v>
+      </c>
+      <c r="T14">
+        <v>-1</v>
+      </c>
+      <c r="U14">
+        <v>-1</v>
+      </c>
+      <c r="V14">
+        <v>-1</v>
+      </c>
+      <c r="W14">
+        <v>-1</v>
+      </c>
+      <c r="X14">
+        <v>-1</v>
+      </c>
+      <c r="Y14">
+        <v>20969.05101280889</v>
+      </c>
+      <c r="Z14">
+        <v>0.2459088642539765</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <v>2</v>
+      </c>
+      <c r="Q15">
+        <v>3</v>
+      </c>
+      <c r="R15">
+        <v>-0</v>
+      </c>
+      <c r="S15">
+        <v>-1</v>
+      </c>
+      <c r="T15">
+        <v>-1</v>
+      </c>
+      <c r="U15">
+        <v>-1</v>
+      </c>
+      <c r="V15">
+        <v>-1</v>
+      </c>
+      <c r="W15">
+        <v>-1</v>
+      </c>
+      <c r="X15">
+        <v>-1</v>
+      </c>
+      <c r="Y15">
+        <v>20441.75007595391</v>
+      </c>
+      <c r="Z15">
+        <v>0.2526090333277221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16">
+        <v>-0</v>
+      </c>
+      <c r="B16">
+        <v>-0</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <v>5</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="P16">
+        <v>3</v>
+      </c>
+      <c r="Q16">
+        <v>3</v>
+      </c>
+      <c r="R16">
+        <v>-0</v>
+      </c>
+      <c r="S16">
+        <v>-1</v>
+      </c>
+      <c r="T16">
+        <v>-1</v>
+      </c>
+      <c r="U16">
+        <v>-1</v>
+      </c>
+      <c r="V16">
+        <v>-1</v>
+      </c>
+      <c r="W16">
+        <v>-1</v>
+      </c>
+      <c r="X16">
+        <v>-1</v>
+      </c>
+      <c r="Y16">
+        <v>20693.95823401157</v>
+      </c>
+      <c r="Z16">
+        <v>0.3207237603792452</v>
       </c>
     </row>
   </sheetData>
